--- a/data extraction /lit search metadata /pulsepress/pulse_press7jun21.xlsx
+++ b/data extraction /lit search metadata /pulsepress/pulse_press7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /pulsepress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB3FC3-A080-1442-9570-F1B537C8A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77268736-9FB9-9345-B71A-9DD187302F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-11640" windowWidth="25060" windowHeight="14400" xr2:uid="{2F64D7F4-80DD-A349-895A-5329DF1C15C9}"/>
+    <workbookView xWindow="29220" yWindow="-8140" windowWidth="24000" windowHeight="14400" xr2:uid="{2F64D7F4-80DD-A349-895A-5329DF1C15C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data extraction /lit search metadata /pulsepress/pulse_press7jun21.xlsx
+++ b/data extraction /lit search metadata /pulsepress/pulse_press7jun21.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /pulsepress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77268736-9FB9-9345-B71A-9DD187302F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9677A79-A4B2-344E-B769-7C544DB505C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="-8140" windowWidth="24000" windowHeight="14400" xr2:uid="{2F64D7F4-80DD-A349-895A-5329DF1C15C9}"/>
+    <workbookView xWindow="28800" yWindow="-6080" windowWidth="24000" windowHeight="14400" xr2:uid="{2F64D7F4-80DD-A349-895A-5329DF1C15C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,9 +168,6 @@
     <t>population</t>
   </si>
   <si>
-    <t xml:space="preserve">appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis </t>
-  </si>
-  <si>
     <t>Enriquez_2020_INSESCIE</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>organismal</t>
   </si>
   <si>
-    <t>pulse press, max temp exposure</t>
-  </si>
-  <si>
     <t>Kern_2015_JOOFEXBI</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t>Exposure to stressful low temperatures during development can result in the accumulation of deleterious physiological effects called chill injury. Metabolic imbalances, disruptions in ion homeostasis and oxidative stress contribute to the increased mortality of chill-injured insects. Interestingly, survival can be significantly increased when chill-susceptible insects are exposed to a daily warm-temperature pulse during chilling. We hypothesize that warm pulses allow for the repair of damage associated with chill injury. Here, we describe transcriptional responses during exposure to a fluctuating thermal regime, relative to constant chilled temperatures, during pupal development in the alfalfa leafcutting bee, Megachile rotundata, using a combination of RNA-seq and qPCR. Pupae were exposed to either a constant, chilled temperature of 6 degrees C, or 6 degrees C with a daily pulse of 20 degrees C for 7 days. RNA-seq after experimental treatment revealed differential expression of transcripts involved in construction of cell membranes, oxidation-reduction and various metabolic processes. These mechanisms provide support for shared physiological responses to chill injury across taxa. The large number of differentially expressed transcripts observed after 7 days of treatment suggests that the initial divergence in expression profiles between the two treatments occurred upstream of the time point sampled. Additionally, the differential expression profiles observed in this study show little overlap with those differentially expressed during temperature stress in the diapause state of M. rotundata. While the mechanisms governing the physiological response to lowtemperature stress are shared, the specific transcripts associated with the response differ between life stages.</t>
   </si>
   <si>
-    <t>pulse press, exposure</t>
-  </si>
-  <si>
     <t>Chen_2019_JOOFEXBI</t>
   </si>
   <si>
@@ -664,6 +655,15 @@
   </si>
   <si>
     <t>extreme heat events, pulse press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis, different means cannot be paired </t>
+  </si>
+  <si>
+    <t>pulse press, max temp exposure, no constant trt?</t>
+  </si>
+  <si>
+    <t>pulse press, exposure; not really any extractable data</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1121,10 +1121,10 @@
         <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1162,10 +1162,10 @@
         <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1203,10 +1203,10 @@
         <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1244,39 +1244,39 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>2020</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>45</v>
@@ -1285,39 +1285,39 @@
         <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>2015</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>45</v>
@@ -1326,33 +1326,33 @@
         <v>23</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F8" s="1">
         <v>2018</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
@@ -1361,36 +1361,36 @@
         <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F9" s="1">
         <v>2015</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>20</v>
@@ -1399,39 +1399,39 @@
         <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
         <v>2014</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>20</v>
@@ -1440,39 +1440,39 @@
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F11" s="1">
         <v>2015</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1487,33 +1487,33 @@
         <v>23</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F12" s="1">
         <v>2004</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>20</v>
@@ -1528,185 +1528,185 @@
         <v>23</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F13" s="1">
         <v>2017</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F14" s="1">
         <v>2019</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="F15" s="1">
         <v>1999</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F16" s="1">
         <v>2010</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1">
         <v>2009</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>20</v>
@@ -1715,36 +1715,36 @@
         <v>21</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
       </c>
       <c r="F18">
         <v>2017</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -1759,77 +1759,77 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s">
         <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F19" s="2">
         <v>2020</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20" s="3">
         <v>2015</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>20</v>
@@ -1838,36 +1838,36 @@
         <v>21</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F21" s="3">
         <v>2020</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>20</v>
@@ -1876,36 +1876,36 @@
         <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F22" s="3">
         <v>2017</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>20</v>
@@ -1914,36 +1914,36 @@
         <v>21</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="F23" s="3">
         <v>2019</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>20</v>
@@ -1952,36 +1952,36 @@
         <v>21</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F24" s="3">
         <v>2018</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>20</v>
@@ -1990,36 +1990,36 @@
         <v>21</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F25" s="3">
         <v>2019</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>20</v>
@@ -2028,36 +2028,36 @@
         <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="F26" s="3">
         <v>2020</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>20</v>
@@ -2066,39 +2066,39 @@
         <v>21</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="F27" s="3">
         <v>2012</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>20</v>
@@ -2107,36 +2107,36 @@
         <v>21</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="F28" s="3">
         <v>2019</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>20</v>
@@ -2145,13 +2145,13 @@
         <v>21</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
